--- a/Banco Central/11/1/2/Número de viviendas y superficie 2008 a 2021 - Mensual.xlsx
+++ b/Banco Central/11/1/2/Número de viviendas y superficie 2008 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Serie</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4103,19 +4106,39 @@
         <v>166</v>
       </c>
       <c r="B162">
-        <v>1103489</v>
+        <v>1121917</v>
       </c>
       <c r="C162">
-        <v>12311</v>
+        <v>12360</v>
       </c>
       <c r="D162">
-        <v>902067</v>
+        <v>906040</v>
       </c>
       <c r="E162">
-        <v>145284</v>
+        <v>155806</v>
       </c>
       <c r="F162">
-        <v>56138</v>
+        <v>60071</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163">
+        <v>908224</v>
+      </c>
+      <c r="C163">
+        <v>9402</v>
+      </c>
+      <c r="D163">
+        <v>735096</v>
+      </c>
+      <c r="E163">
+        <v>114828</v>
+      </c>
+      <c r="F163">
+        <v>58300</v>
       </c>
     </row>
   </sheetData>
